--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Neo1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H2">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I2">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J2">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.58756078360829</v>
+        <v>5.872120333333332</v>
       </c>
       <c r="N2">
-        <v>5.58756078360829</v>
+        <v>17.616361</v>
       </c>
       <c r="O2">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692768</v>
       </c>
       <c r="P2">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692769</v>
       </c>
       <c r="Q2">
-        <v>10.27355248535668</v>
+        <v>11.69043442805233</v>
       </c>
       <c r="R2">
-        <v>10.27355248535668</v>
+        <v>105.213909852471</v>
       </c>
       <c r="S2">
-        <v>0.008669935602319665</v>
+        <v>0.008780016586653469</v>
       </c>
       <c r="T2">
-        <v>0.008669935602319665</v>
+        <v>0.00878001658665347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H3">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I3">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J3">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.2513889927486</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N3">
-        <v>59.2513889927486</v>
+        <v>178.879798</v>
       </c>
       <c r="O3">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155241</v>
       </c>
       <c r="P3">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155242</v>
       </c>
       <c r="Q3">
-        <v>108.9423951204325</v>
+        <v>118.7068401369753</v>
       </c>
       <c r="R3">
-        <v>108.9423951204325</v>
+        <v>1068.361561232778</v>
       </c>
       <c r="S3">
-        <v>0.09193738498955278</v>
+        <v>0.08915391739856046</v>
       </c>
       <c r="T3">
-        <v>0.09193738498955278</v>
+        <v>0.08915391739856048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H4">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I4">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J4">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.210173761745483</v>
+        <v>0.226786</v>
       </c>
       <c r="N4">
-        <v>0.210173761745483</v>
+        <v>0.680358</v>
       </c>
       <c r="O4">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="P4">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="Q4">
-        <v>0.386435379579477</v>
+        <v>0.4514939598820001</v>
       </c>
       <c r="R4">
-        <v>0.386435379579477</v>
+        <v>4.063445638938001</v>
       </c>
       <c r="S4">
-        <v>0.0003261160012748698</v>
+        <v>0.0003390912870633374</v>
       </c>
       <c r="T4">
-        <v>0.0003261160012748698</v>
+        <v>0.0003390912870633374</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.83864710975409</v>
+        <v>1.990837</v>
       </c>
       <c r="H5">
-        <v>1.83864710975409</v>
+        <v>5.972511000000001</v>
       </c>
       <c r="I5">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="J5">
-        <v>0.1143799643812012</v>
+        <v>0.1122845585713437</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.66595725625997</v>
+        <v>9.370985666666668</v>
       </c>
       <c r="N5">
-        <v>8.66595725625997</v>
+        <v>28.112957</v>
       </c>
       <c r="O5">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="P5">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="Q5">
-        <v>15.93363726247488</v>
+        <v>18.65610499166967</v>
       </c>
       <c r="R5">
-        <v>15.93363726247488</v>
+        <v>167.904944925027</v>
       </c>
       <c r="S5">
-        <v>0.01344652778805384</v>
+        <v>0.01401153329906647</v>
       </c>
       <c r="T5">
-        <v>0.01344652778805384</v>
+        <v>0.01401153329906647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.7505011819827</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H6">
-        <v>10.7505011819827</v>
+        <v>34.28296</v>
       </c>
       <c r="I6">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J6">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.58756078360829</v>
+        <v>5.872120333333332</v>
       </c>
       <c r="N6">
-        <v>5.58756078360829</v>
+        <v>17.616361</v>
       </c>
       <c r="O6">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692768</v>
       </c>
       <c r="P6">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692769</v>
       </c>
       <c r="Q6">
-        <v>60.06907880858111</v>
+        <v>67.10455550095111</v>
       </c>
       <c r="R6">
-        <v>60.06907880858111</v>
+        <v>603.94099950856</v>
       </c>
       <c r="S6">
-        <v>0.05069279061000308</v>
+        <v>0.05039839314478908</v>
       </c>
       <c r="T6">
-        <v>0.05069279061000308</v>
+        <v>0.05039839314478908</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.7505011819827</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H7">
-        <v>10.7505011819827</v>
+        <v>34.28296</v>
       </c>
       <c r="I7">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J7">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.2513889927486</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N7">
-        <v>59.2513889927486</v>
+        <v>178.879798</v>
       </c>
       <c r="O7">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155241</v>
       </c>
       <c r="P7">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155242</v>
       </c>
       <c r="Q7">
-        <v>636.9821274006606</v>
+        <v>681.3921066268978</v>
       </c>
       <c r="R7">
-        <v>636.9821274006606</v>
+        <v>6132.528959642081</v>
       </c>
       <c r="S7">
-        <v>0.5375544664091501</v>
+        <v>0.511754634527781</v>
       </c>
       <c r="T7">
-        <v>0.5375544664091501</v>
+        <v>0.5117546345277811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.7505011819827</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H8">
-        <v>10.7505011819827</v>
+        <v>34.28296</v>
       </c>
       <c r="I8">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J8">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.210173761745483</v>
+        <v>0.226786</v>
       </c>
       <c r="N8">
-        <v>0.210173761745483</v>
+        <v>0.680358</v>
       </c>
       <c r="O8">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="P8">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="Q8">
-        <v>2.259473274066565</v>
+        <v>2.591631788853334</v>
       </c>
       <c r="R8">
-        <v>2.259473274066565</v>
+        <v>23.32468609968</v>
       </c>
       <c r="S8">
-        <v>0.001906788115332179</v>
+        <v>0.001946426390967034</v>
       </c>
       <c r="T8">
-        <v>0.001906788115332179</v>
+        <v>0.001946426390967034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.7505011819827</v>
+        <v>11.42765333333333</v>
       </c>
       <c r="H9">
-        <v>10.7505011819827</v>
+        <v>34.28296</v>
       </c>
       <c r="I9">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="J9">
-        <v>0.668775392380597</v>
+        <v>0.6445274073365515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.66595725625997</v>
+        <v>9.370985666666668</v>
       </c>
       <c r="N9">
-        <v>8.66595725625997</v>
+        <v>28.112957</v>
       </c>
       <c r="O9">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="P9">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="Q9">
-        <v>93.16338372643438</v>
+        <v>107.0883755903022</v>
       </c>
       <c r="R9">
-        <v>93.16338372643438</v>
+        <v>963.7953803127201</v>
       </c>
       <c r="S9">
-        <v>0.07862134724611172</v>
+        <v>0.08042795327301425</v>
       </c>
       <c r="T9">
-        <v>0.07862134724611172</v>
+        <v>0.08042795327301425</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.48575713161443</v>
+        <v>0.2266433333333333</v>
       </c>
       <c r="H10">
-        <v>3.48575713161443</v>
+        <v>0.67993</v>
       </c>
       <c r="I10">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="J10">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.58756078360829</v>
+        <v>5.872120333333332</v>
       </c>
       <c r="N10">
-        <v>5.58756078360829</v>
+        <v>17.616361</v>
       </c>
       <c r="O10">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692768</v>
       </c>
       <c r="P10">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692769</v>
       </c>
       <c r="Q10">
-        <v>19.47687984979171</v>
+        <v>1.330876926081111</v>
       </c>
       <c r="R10">
-        <v>19.47687984979171</v>
+        <v>11.97789233473</v>
       </c>
       <c r="S10">
-        <v>0.01643669940582865</v>
+        <v>0.0009995455308099545</v>
       </c>
       <c r="T10">
-        <v>0.01643669940582865</v>
+        <v>0.0009995455308099547</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.48575713161443</v>
+        <v>0.2266433333333333</v>
       </c>
       <c r="H11">
-        <v>3.48575713161443</v>
+        <v>0.67993</v>
       </c>
       <c r="I11">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="J11">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.2513889927486</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N11">
-        <v>59.2513889927486</v>
+        <v>178.879798</v>
       </c>
       <c r="O11">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155241</v>
       </c>
       <c r="P11">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155242</v>
       </c>
       <c r="Q11">
-        <v>206.5359517395342</v>
+        <v>13.51397122823778</v>
       </c>
       <c r="R11">
-        <v>206.5359517395342</v>
+        <v>121.62574105414</v>
       </c>
       <c r="S11">
-        <v>0.1742973916469357</v>
+        <v>0.01014957076794052</v>
       </c>
       <c r="T11">
-        <v>0.1742973916469357</v>
+        <v>0.01014957076794052</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.48575713161443</v>
+        <v>0.2266433333333333</v>
       </c>
       <c r="H12">
-        <v>3.48575713161443</v>
+        <v>0.67993</v>
       </c>
       <c r="I12">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="J12">
-        <v>0.2168446432382017</v>
+        <v>0.01278283789002879</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.210173761745483</v>
+        <v>0.226786</v>
       </c>
       <c r="N12">
-        <v>0.210173761745483</v>
+        <v>0.680358</v>
       </c>
       <c r="O12">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="P12">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="Q12">
-        <v>0.7326146888825494</v>
+        <v>0.05139953499333334</v>
       </c>
       <c r="R12">
-        <v>0.7326146888825494</v>
+        <v>0.46259581494</v>
       </c>
       <c r="S12">
-        <v>0.0006182595731105215</v>
+        <v>3.86032505947624E-05</v>
       </c>
       <c r="T12">
-        <v>0.0006182595731105215</v>
+        <v>3.86032505947624E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2266433333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.67993</v>
+      </c>
+      <c r="I13">
+        <v>0.01278283789002879</v>
+      </c>
+      <c r="J13">
+        <v>0.01278283789002879</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.370985666666668</v>
+      </c>
+      <c r="N13">
+        <v>28.112957</v>
+      </c>
+      <c r="O13">
+        <v>0.1247859320759922</v>
+      </c>
+      <c r="P13">
+        <v>0.1247859320759922</v>
+      </c>
+      <c r="Q13">
+        <v>2.123871428112222</v>
+      </c>
+      <c r="R13">
+        <v>19.11484285301</v>
+      </c>
+      <c r="S13">
+        <v>0.001595118340683552</v>
+      </c>
+      <c r="T13">
+        <v>0.001595118340683552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H14">
+        <v>12.255448</v>
+      </c>
+      <c r="I14">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J14">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.872120333333332</v>
+      </c>
+      <c r="N14">
+        <v>17.616361</v>
+      </c>
+      <c r="O14">
+        <v>0.07819433676692768</v>
+      </c>
+      <c r="P14">
+        <v>0.07819433676692769</v>
+      </c>
+      <c r="Q14">
+        <v>23.98848846496977</v>
+      </c>
+      <c r="R14">
+        <v>215.896396184728</v>
+      </c>
+      <c r="S14">
+        <v>0.01801638150467518</v>
+      </c>
+      <c r="T14">
+        <v>0.01801638150467518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H15">
+        <v>12.255448</v>
+      </c>
+      <c r="I15">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J15">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>59.62659933333333</v>
+      </c>
+      <c r="N15">
+        <v>178.879798</v>
+      </c>
+      <c r="O15">
+        <v>0.7939998031155241</v>
+      </c>
+      <c r="P15">
+        <v>0.7939998031155242</v>
+      </c>
+      <c r="Q15">
+        <v>243.5835625155004</v>
+      </c>
+      <c r="R15">
+        <v>2192.252062639504</v>
+      </c>
+      <c r="S15">
+        <v>0.182941680421242</v>
+      </c>
+      <c r="T15">
+        <v>0.1829416804212421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.48575713161443</v>
-      </c>
-      <c r="H13">
-        <v>3.48575713161443</v>
-      </c>
-      <c r="I13">
-        <v>0.2168446432382017</v>
-      </c>
-      <c r="J13">
-        <v>0.2168446432382017</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>8.66595725625997</v>
-      </c>
-      <c r="N13">
-        <v>8.66595725625997</v>
-      </c>
-      <c r="O13">
-        <v>0.1175601676464924</v>
-      </c>
-      <c r="P13">
-        <v>0.1175601676464924</v>
-      </c>
-      <c r="Q13">
-        <v>30.20742230827401</v>
-      </c>
-      <c r="R13">
-        <v>30.20742230827401</v>
-      </c>
-      <c r="S13">
-        <v>0.02549229261232683</v>
-      </c>
-      <c r="T13">
-        <v>0.02549229261232683</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H16">
+        <v>12.255448</v>
+      </c>
+      <c r="I16">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J16">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.226786</v>
+      </c>
+      <c r="N16">
+        <v>0.680358</v>
+      </c>
+      <c r="O16">
+        <v>0.003019928041555994</v>
+      </c>
+      <c r="P16">
+        <v>0.003019928041555994</v>
+      </c>
+      <c r="Q16">
+        <v>0.9264546767093332</v>
+      </c>
+      <c r="R16">
+        <v>8.338092090384</v>
+      </c>
+      <c r="S16">
+        <v>0.00069580711293086</v>
+      </c>
+      <c r="T16">
+        <v>0.0006958071129308601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.085149333333333</v>
+      </c>
+      <c r="H17">
+        <v>12.255448</v>
+      </c>
+      <c r="I17">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="J17">
+        <v>0.230405196202076</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.370985666666668</v>
+      </c>
+      <c r="N17">
+        <v>28.112957</v>
+      </c>
+      <c r="O17">
+        <v>0.1247859320759922</v>
+      </c>
+      <c r="P17">
+        <v>0.1247859320759922</v>
+      </c>
+      <c r="Q17">
+        <v>38.28187584885956</v>
+      </c>
+      <c r="R17">
+        <v>344.536882639736</v>
+      </c>
+      <c r="S17">
+        <v>0.02875132716322791</v>
+      </c>
+      <c r="T17">
+        <v>0.02875132716322791</v>
       </c>
     </row>
   </sheetData>
